--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl5-Cxcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl5-Cxcr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Cxcl5</t>
+  </si>
+  <si>
+    <t>Cxcr1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cxcl5</t>
-  </si>
-  <si>
-    <t>Cxcr1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,40 +546,40 @@
         <v>1.157816</v>
       </c>
       <c r="I2">
-        <v>0.01586060178494373</v>
+        <v>0.01645689812736647</v>
       </c>
       <c r="J2">
-        <v>0.01586060178494374</v>
+        <v>0.01645689812736647</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.141183</v>
+        <v>0.011299</v>
       </c>
       <c r="N2">
-        <v>0.423549</v>
+        <v>0.033897</v>
       </c>
       <c r="O2">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="P2">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="Q2">
-        <v>0.054487978776</v>
+        <v>0.004360720994666666</v>
       </c>
       <c r="R2">
-        <v>0.490391808984</v>
+        <v>0.039246488952</v>
       </c>
       <c r="S2">
-        <v>0.005647135490567403</v>
+        <v>0.005800133876325327</v>
       </c>
       <c r="T2">
-        <v>0.005647135490567405</v>
+        <v>0.00580013387632533</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -608,10 +608,10 @@
         <v>1.157816</v>
       </c>
       <c r="I3">
-        <v>0.01586060178494373</v>
+        <v>0.01645689812736647</v>
       </c>
       <c r="J3">
-        <v>0.01586060178494374</v>
+        <v>0.01645689812736647</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,10 +626,10 @@
         <v>0.001019</v>
       </c>
       <c r="O3">
-        <v>0.0008566019717817321</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="P3">
-        <v>0.000856601971781732</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="Q3">
         <v>0.0001310905004444444</v>
@@ -638,10 +638,10 @@
         <v>0.001179814504</v>
       </c>
       <c r="S3">
-        <v>1.358622276262766E-05</v>
+        <v>0.0001743616373123141</v>
       </c>
       <c r="T3">
-        <v>1.358622276262766E-05</v>
+        <v>0.0001743616373123141</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,40 +670,40 @@
         <v>1.157816</v>
       </c>
       <c r="I4">
-        <v>0.01586060178494373</v>
+        <v>0.01645689812736647</v>
       </c>
       <c r="J4">
-        <v>0.01586060178494374</v>
+        <v>0.01645689812736647</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.2550053333333333</v>
+        <v>0.02042033333333334</v>
       </c>
       <c r="N4">
-        <v>0.7650159999999999</v>
+        <v>0.061261</v>
       </c>
       <c r="O4">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864354</v>
       </c>
       <c r="P4">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864355</v>
       </c>
       <c r="Q4">
-        <v>0.09841641833955554</v>
+        <v>0.007880996219555556</v>
       </c>
       <c r="R4">
-        <v>0.8857477650559998</v>
+        <v>0.070928965976</v>
       </c>
       <c r="S4">
-        <v>0.0101998800716137</v>
+        <v>0.01048240261372882</v>
       </c>
       <c r="T4">
-        <v>0.01019988007161371</v>
+        <v>0.01048240261372883</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.84852066666666</v>
+        <v>22.84852066666667</v>
       </c>
       <c r="H5">
-        <v>68.54556199999999</v>
+        <v>68.545562</v>
       </c>
       <c r="I5">
-        <v>0.9389867327858409</v>
+        <v>0.9742889465312989</v>
       </c>
       <c r="J5">
-        <v>0.9389867327858411</v>
+        <v>0.9742889465312989</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.141183</v>
+        <v>0.011299</v>
       </c>
       <c r="N5">
-        <v>0.423549</v>
+        <v>0.033897</v>
       </c>
       <c r="O5">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="P5">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="Q5">
-        <v>3.225822693281999</v>
+        <v>0.2581654350126666</v>
       </c>
       <c r="R5">
-        <v>29.032404239538</v>
+        <v>2.323488915114</v>
       </c>
       <c r="S5">
-        <v>0.3343243450523125</v>
+        <v>0.3433822267337454</v>
       </c>
       <c r="T5">
-        <v>0.3343243450523126</v>
+        <v>0.3433822267337455</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.84852066666666</v>
+        <v>22.84852066666667</v>
       </c>
       <c r="H6">
-        <v>68.54556199999999</v>
+        <v>68.545562</v>
       </c>
       <c r="I6">
-        <v>0.9389867327858409</v>
+        <v>0.9742889465312989</v>
       </c>
       <c r="J6">
-        <v>0.9389867327858411</v>
+        <v>0.9742889465312989</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,22 +812,22 @@
         <v>0.001019</v>
       </c>
       <c r="O6">
-        <v>0.0008566019717817321</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="P6">
-        <v>0.000856601971781732</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="Q6">
-        <v>0.00776088085311111</v>
+        <v>0.007760880853111112</v>
       </c>
       <c r="R6">
-        <v>0.06984792767799998</v>
+        <v>0.06984792767799999</v>
       </c>
       <c r="S6">
-        <v>0.0008043378867812378</v>
+        <v>0.01032263884832542</v>
       </c>
       <c r="T6">
-        <v>0.0008043378867812379</v>
+        <v>0.01032263884832542</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>22.84852066666666</v>
+        <v>22.84852066666667</v>
       </c>
       <c r="H7">
-        <v>68.54556199999999</v>
+        <v>68.545562</v>
       </c>
       <c r="I7">
-        <v>0.9389867327858409</v>
+        <v>0.9742889465312989</v>
       </c>
       <c r="J7">
-        <v>0.9389867327858411</v>
+        <v>0.9742889465312989</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.2550053333333333</v>
+        <v>0.02042033333333334</v>
       </c>
       <c r="N7">
-        <v>0.7650159999999999</v>
+        <v>0.061261</v>
       </c>
       <c r="O7">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864354</v>
       </c>
       <c r="P7">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864355</v>
       </c>
       <c r="Q7">
-        <v>5.826494628776887</v>
+        <v>0.466574408186889</v>
       </c>
       <c r="R7">
-        <v>52.43845165899199</v>
+        <v>4.199169673682</v>
       </c>
       <c r="S7">
-        <v>0.6038580498467472</v>
+        <v>0.620584080949228</v>
       </c>
       <c r="T7">
-        <v>0.6038580498467473</v>
+        <v>0.6205840809492281</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.05140466666666667</v>
+        <v>0.2170236666666667</v>
       </c>
       <c r="H8">
-        <v>0.154214</v>
+        <v>0.6510710000000001</v>
       </c>
       <c r="I8">
-        <v>0.002112535017363133</v>
+        <v>0.009254155341334561</v>
       </c>
       <c r="J8">
-        <v>0.002112535017363134</v>
+        <v>0.009254155341334561</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.141183</v>
+        <v>0.011299</v>
       </c>
       <c r="N8">
-        <v>0.423549</v>
+        <v>0.033897</v>
       </c>
       <c r="O8">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="P8">
-        <v>0.3560479966105798</v>
+        <v>0.3524439315012944</v>
       </c>
       <c r="Q8">
-        <v>0.007257465054000001</v>
+        <v>0.002452150409666667</v>
       </c>
       <c r="R8">
-        <v>0.065317185486</v>
+        <v>0.022069353687</v>
       </c>
       <c r="S8">
-        <v>0.00075216386070184</v>
+        <v>0.003261570891223656</v>
       </c>
       <c r="T8">
-        <v>0.0007521638607018402</v>
+        <v>0.003261570891223656</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.05140466666666667</v>
+        <v>0.2170236666666667</v>
       </c>
       <c r="H9">
-        <v>0.154214</v>
+        <v>0.6510710000000001</v>
       </c>
       <c r="I9">
-        <v>0.002112535017363133</v>
+        <v>0.009254155341334561</v>
       </c>
       <c r="J9">
-        <v>0.002112535017363134</v>
+        <v>0.009254155341334561</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -998,22 +998,22 @@
         <v>0.001019</v>
       </c>
       <c r="O9">
-        <v>0.0008566019717817321</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="P9">
-        <v>0.000856601971781732</v>
+        <v>0.01059504871227008</v>
       </c>
       <c r="Q9">
-        <v>1.746045177777778E-05</v>
+        <v>7.371570544444446E-05</v>
       </c>
       <c r="R9">
-        <v>0.000157144066</v>
+        <v>0.000663441349</v>
       </c>
       <c r="S9">
-        <v>1.809601661331215E-06</v>
+        <v>9.804822663235407E-05</v>
       </c>
       <c r="T9">
-        <v>1.809601661331216E-06</v>
+        <v>9.804822663235407E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,433 +1021,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.05140466666666667</v>
+        <v>0.2170236666666667</v>
       </c>
       <c r="H10">
-        <v>0.154214</v>
+        <v>0.6510710000000001</v>
       </c>
       <c r="I10">
-        <v>0.002112535017363133</v>
+        <v>0.009254155341334561</v>
       </c>
       <c r="J10">
-        <v>0.002112535017363134</v>
+        <v>0.009254155341334561</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.2550053333333333</v>
+        <v>0.02042033333333334</v>
       </c>
       <c r="N10">
-        <v>0.7650159999999999</v>
+        <v>0.061261</v>
       </c>
       <c r="O10">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864354</v>
       </c>
       <c r="P10">
-        <v>0.6430954014176384</v>
+        <v>0.6369610197864355</v>
       </c>
       <c r="Q10">
-        <v>0.01310846415822222</v>
+        <v>0.004431695614555557</v>
       </c>
       <c r="R10">
-        <v>0.117976177424</v>
+        <v>0.03988526053100001</v>
       </c>
       <c r="S10">
-        <v>0.001358561554999962</v>
+        <v>0.00589453622347855</v>
       </c>
       <c r="T10">
-        <v>0.001358561554999962</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.7364576666666666</v>
-      </c>
-      <c r="H11">
-        <v>2.209373</v>
-      </c>
-      <c r="I11">
-        <v>0.03026559086021137</v>
-      </c>
-      <c r="J11">
-        <v>0.03026559086021138</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.141183</v>
-      </c>
-      <c r="N11">
-        <v>0.423549</v>
-      </c>
-      <c r="O11">
-        <v>0.3560479966105798</v>
-      </c>
-      <c r="P11">
-        <v>0.3560479966105798</v>
-      </c>
-      <c r="Q11">
-        <v>0.103975302753</v>
-      </c>
-      <c r="R11">
-        <v>0.9357777247769999</v>
-      </c>
-      <c r="S11">
-        <v>0.01077600299201373</v>
-      </c>
-      <c r="T11">
-        <v>0.01077600299201374</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.7364576666666666</v>
-      </c>
-      <c r="H12">
-        <v>2.209373</v>
-      </c>
-      <c r="I12">
-        <v>0.03026559086021137</v>
-      </c>
-      <c r="J12">
-        <v>0.03026559086021138</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.0003396666666666667</v>
-      </c>
-      <c r="N12">
-        <v>0.001019</v>
-      </c>
-      <c r="O12">
-        <v>0.0008566019717817321</v>
-      </c>
-      <c r="P12">
-        <v>0.000856601971781732</v>
-      </c>
-      <c r="Q12">
-        <v>0.0002501501207777777</v>
-      </c>
-      <c r="R12">
-        <v>0.002251351087</v>
-      </c>
-      <c r="S12">
-        <v>2.592556480799623E-05</v>
-      </c>
-      <c r="T12">
-        <v>2.592556480799623E-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.7364576666666666</v>
-      </c>
-      <c r="H13">
-        <v>2.209373</v>
-      </c>
-      <c r="I13">
-        <v>0.03026559086021137</v>
-      </c>
-      <c r="J13">
-        <v>0.03026559086021138</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.2550053333333333</v>
-      </c>
-      <c r="N13">
-        <v>0.7650159999999999</v>
-      </c>
-      <c r="O13">
-        <v>0.6430954014176384</v>
-      </c>
-      <c r="P13">
-        <v>0.6430954014176384</v>
-      </c>
-      <c r="Q13">
-        <v>0.1878006327742222</v>
-      </c>
-      <c r="R13">
-        <v>1.690205694968</v>
-      </c>
-      <c r="S13">
-        <v>0.01946366230338964</v>
-      </c>
-      <c r="T13">
-        <v>0.01946366230338964</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.310845</v>
-      </c>
-      <c r="H14">
-        <v>0.932535</v>
-      </c>
-      <c r="I14">
-        <v>0.01277453955164077</v>
-      </c>
-      <c r="J14">
-        <v>0.01277453955164077</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.141183</v>
-      </c>
-      <c r="N14">
-        <v>0.423549</v>
-      </c>
-      <c r="O14">
-        <v>0.3560479966105798</v>
-      </c>
-      <c r="P14">
-        <v>0.3560479966105798</v>
-      </c>
-      <c r="Q14">
-        <v>0.043886029635</v>
-      </c>
-      <c r="R14">
-        <v>0.394974266715</v>
-      </c>
-      <c r="S14">
-        <v>0.004548349214984309</v>
-      </c>
-      <c r="T14">
-        <v>0.00454834921498431</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.310845</v>
-      </c>
-      <c r="H15">
-        <v>0.932535</v>
-      </c>
-      <c r="I15">
-        <v>0.01277453955164077</v>
-      </c>
-      <c r="J15">
-        <v>0.01277453955164077</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.0003396666666666667</v>
-      </c>
-      <c r="N15">
-        <v>0.001019</v>
-      </c>
-      <c r="O15">
-        <v>0.0008566019717817321</v>
-      </c>
-      <c r="P15">
-        <v>0.000856601971781732</v>
-      </c>
-      <c r="Q15">
-        <v>0.000105583685</v>
-      </c>
-      <c r="R15">
-        <v>0.000950253165</v>
-      </c>
-      <c r="S15">
-        <v>1.09426957685392E-05</v>
-      </c>
-      <c r="T15">
-        <v>1.09426957685392E-05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.310845</v>
-      </c>
-      <c r="H16">
-        <v>0.932535</v>
-      </c>
-      <c r="I16">
-        <v>0.01277453955164077</v>
-      </c>
-      <c r="J16">
-        <v>0.01277453955164077</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.2550053333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.7650159999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.6430954014176384</v>
-      </c>
-      <c r="P16">
-        <v>0.6430954014176384</v>
-      </c>
-      <c r="Q16">
-        <v>0.07926713283999999</v>
-      </c>
-      <c r="R16">
-        <v>0.7134041955599999</v>
-      </c>
-      <c r="S16">
-        <v>0.008215247640887918</v>
-      </c>
-      <c r="T16">
-        <v>0.008215247640887918</v>
+        <v>0.005894536223478551</v>
       </c>
     </row>
   </sheetData>
